--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>고려사절요 편찬</t>
+          <t>진관체제 실시</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1413 : 태종</t>
+          <t>1463 : 세조</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1452 : 문종</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>1457 : 세조</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>월인천강지곡 간행</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1446 : 세종</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1449 : 세종</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>월인천강지곡 간행</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1449 : 세종</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>00</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,14 +522,39 @@
           <t>1449 : 세종</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>진관체제 실시</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1457 : 세조</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>06시 54분</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,14 +547,39 @@
           <t>1457 : 세조</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>공법 시행</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>06시 56분</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,14 +572,39 @@
           <t>1444 : 세종</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>의정부 서사제 실시</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1433 : 세종</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1436 : 세종</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>06시 59분</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,14 +597,39 @@
           <t>1436 : 세종</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>경재소 제도화</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1435 : 세종</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>07시 05분</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,14 +622,339 @@
           <t>1435 : 세종</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>갑인자 주조</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1443 : 세종</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1434 : 세종</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>향약집성방 편찬</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1437 : 세종</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1433 : 세종</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>과전 지급 토지를 경기로 환원</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1393 : 태조</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1431 : 세종</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>정초 변효문 농사직설 편찬</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1429 : 세종</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>36개 불교 사원만 인정</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1436 : 세종</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>경자자 주조</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1413 : 태종</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>과전 지급 토지를 경기로 환원</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1419 : 세종</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1431 : 세종</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>집현전 설치</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1446 : 세종</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6조의 속사 속아문제도 실시</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1417 : 태종</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>승정원 설치</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1419 : 세종</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1400 : 정종</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5위 설치</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>규형 및 인지의 제작</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1467 : 세조</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1465 : 세조</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221219</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>유향소 부활</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1469 : 성종</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1489 : 성종</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>20221219</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>07시 09분</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_전기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,14 +947,314 @@
           <t>1489 : 성종</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D21" t="n">
+        <v>20221219</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5위 설치</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1457 : 세조</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>06시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>유향소 폐지</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1403 : 태종</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1406 : 태종</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>저화 재발행</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1414 : 태종</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1402 : 태종</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>경재소 제도화</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1457 : 세조</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1435 : 세종</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>06시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>숭례문 건립</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1392 : 태조</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1398 : 태조</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>06시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>주자소 설치</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1413 : 태종</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1403 : 태종</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>용비어천가 간행</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>06시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>평시서 설치</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1433 : 세종</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>서얼금고법 실시</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1403 : 태종</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1415 : 태종</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>06시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>경자자 주조</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1406 : 태종</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>공법 시행</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1432 : 세종</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>정초 변효문 농사직설 편찬</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1431 : 세종</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1429 : 세종</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
         </is>
       </c>
     </row>
